--- a/r5-ELGA-MOPED-47-extension-claim-account-verbindung/StructureDefinition-moped-ext-PatientenanteilAngehoerige.xlsx
+++ b/r5-ELGA-MOPED-47-extension-claim-account-verbindung/StructureDefinition-moped-ext-PatientenanteilAngehoerige.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:34:58+00:00</t>
+    <t>2024-09-26T09:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
